--- a/khnp_intern/sample data/generator/validation_set.xlsx
+++ b/khnp_intern/sample data/generator/validation_set.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,6 +461,18 @@
       <c r="J1" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="K1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -470,49 +482,49 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>9812</t>
+          <t>BF30</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>6515</t>
+          <t>AF18</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>AF20</t>
+          <t>ABJI</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>AA38</t>
+          <t>BU58</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>AF19</t>
+          <t>BW96</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>BD83</t>
+          <t>AJ85</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>AA41</t>
+          <t>AF17</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>AM06</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>1738</t>
-        </is>
-      </c>
+          <t>BQ15</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -522,49 +534,51 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BD44</t>
+          <t>BF31</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>9811</t>
+          <t>AS22</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>BU57</t>
+          <t>AM06</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6514</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1425</t>
-        </is>
+          <t>A149</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>7696</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>AH01</t>
+          <t>BH95</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>BF30</t>
+          <t>AA41</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>BW96</t>
+          <t>A943</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>AM07</t>
-        </is>
-      </c>
+          <t>BD83</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -574,49 +588,57 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ABC5</t>
+          <t>AH01</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>AF14</t>
+          <t>A942</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>BQ15</t>
+          <t>AA38</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>AN48</t>
+          <t>AF20</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>BU58</t>
+          <t>AA40</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>AF17</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>BH95</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>1747</t>
-        </is>
+          <t>AF15</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6515</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6514</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>AK61</t>
-        </is>
-      </c>
+          <t>BU57</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>AF19</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>AM05</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -624,51 +646,51 @@
           <t>set3</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>1747</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1425</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ABHU</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>BW88</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>AN69</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>5588</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>AF15</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>AA40</t>
+          <t>BF04</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>AF16</t>
+          <t>ABC5</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>AF18</t>
+          <t>BF05</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>AN25</t>
+          <t>BD44</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>AK65</t>
-        </is>
-      </c>
+          <t>BT70</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -678,100 +700,62 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>AS22</t>
+          <t>AA39</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>A149</t>
+          <t>ABFB</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>A942</t>
+          <t>BU59</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ABHU</t>
+          <t>AN69</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>ABFB</t>
+          <t>ABFC</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
+          <t>AF16</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>AF14</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>AN25</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>AK61</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
           <t>AH00</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>BF05</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>ABFC</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>BT70</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>set5</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>AA39</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>BU59</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>A943</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>AM05</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>AJ85</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>ABJI</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>7696</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>BF31</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>BF04</t>
-        </is>
+      <c r="L6" t="n">
+        <v>1738</v>
+      </c>
+      <c r="M6" t="n">
+        <v>9812</v>
+      </c>
+      <c r="N6" t="n">
+        <v>9811</v>
       </c>
     </row>
   </sheetData>
